--- a/tdi/annual_max_by_period.xlsx
+++ b/tdi/annual_max_by_period.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwilliams\Documents\slr-surge-analysis\tdi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6C2A5F7F-606C-4B4A-AA28-312D258855BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00FA7C6-51BA-422B-BCD9-0DE1456C72AB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14100" yWindow="165" windowWidth="21585" windowHeight="20370" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="13140" yWindow="105" windowWidth="21585" windowHeight="20370" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="historical" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,15 @@
     <sheet name="rcp8.5 2085" sheetId="6" r:id="rId7"/>
     <sheet name="monthly distribution" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -197,7 +205,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -1068,11 +1076,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA601"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:AA3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22267,11 +22275,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:AA3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32060,11 +32068,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41856,11 +41864,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52552,11 +52560,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AA301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63251,11 +63259,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AA301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -73947,11 +73955,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AA301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -84643,11 +84651,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1FC2F78-D4AF-4700-90A2-FEE3392B4518}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -84698,13 +84706,13 @@
         <v>46</v>
       </c>
       <c r="B3" s="4">
-        <v>0</v>
+        <v>3.3333333333333335E-3</v>
       </c>
       <c r="C3" s="4">
-        <v>0</v>
+        <v>3.3333333333333335E-3</v>
       </c>
       <c r="D3" s="4">
-        <v>0</v>
+        <v>3.3333333333333335E-3</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -84716,7 +84724,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="4">
-        <v>0</v>
+        <v>3.3333333333333335E-3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -84724,25 +84732,25 @@
         <v>45</v>
       </c>
       <c r="B4" s="4">
-        <v>0</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="C4" s="4">
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="D4" s="4">
-        <v>0</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="E4" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>2.6666666666666668E-2</v>
       </c>
       <c r="G4" s="4">
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <v>0</v>
+        <v>2.3333333333333334E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -84750,25 +84758,25 @@
         <v>44</v>
       </c>
       <c r="B5" s="4">
-        <v>0.13333333333333333</v>
+        <v>8.1666666666666665E-2</v>
       </c>
       <c r="C5" s="4">
-        <v>0.1</v>
+        <v>7.6666666666666661E-2</v>
       </c>
       <c r="D5" s="4">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E5" s="4">
-        <v>0.16666666666666666</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F5" s="4">
-        <v>0</v>
+        <v>8.666666666666667E-2</v>
       </c>
       <c r="G5" s="4">
-        <v>6.6666666666666666E-2</v>
+        <v>7.6666666666666661E-2</v>
       </c>
       <c r="H5" s="4">
-        <v>0</v>
+        <v>7.6666666666666661E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -84776,25 +84784,25 @@
         <v>43</v>
       </c>
       <c r="B6" s="4">
-        <v>0.16666666666666666</v>
+        <v>0.18833333333333332</v>
       </c>
       <c r="C6" s="4">
-        <v>0.36666666666666664</v>
+        <v>0.20666666666666667</v>
       </c>
       <c r="D6" s="4">
-        <v>0.36666666666666664</v>
+        <v>0.25</v>
       </c>
       <c r="E6" s="4">
-        <v>0.43333333333333335</v>
+        <v>0.26333333333333331</v>
       </c>
       <c r="F6" s="4">
-        <v>0.6333333333333333</v>
+        <v>0.27333333333333332</v>
       </c>
       <c r="G6" s="4">
-        <v>0.46666666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="H6" s="4">
-        <v>0.66666666666666663</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -84802,25 +84810,25 @@
         <v>42</v>
       </c>
       <c r="B7" s="4">
-        <v>0.5</v>
+        <v>0.24666666666666667</v>
       </c>
       <c r="C7" s="4">
-        <v>0.26666666666666666</v>
+        <v>0.25666666666666665</v>
       </c>
       <c r="D7" s="4">
-        <v>0.3</v>
+        <v>0.27666666666666667</v>
       </c>
       <c r="E7" s="4">
-        <v>0.23333333333333334</v>
+        <v>0.23</v>
       </c>
       <c r="F7" s="4">
-        <v>0.26666666666666666</v>
+        <v>0.28333333333333333</v>
       </c>
       <c r="G7" s="4">
-        <v>0.26666666666666666</v>
+        <v>0.30333333333333334</v>
       </c>
       <c r="H7" s="4">
-        <v>0.3</v>
+        <v>0.34666666666666668</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -84828,25 +84836,25 @@
         <v>41</v>
       </c>
       <c r="B8" s="4">
-        <v>0.18333333333333332</v>
+        <v>0.24</v>
       </c>
       <c r="C8" s="4">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D8" s="4">
-        <v>0.2</v>
+        <v>0.24666666666666667</v>
       </c>
       <c r="E8" s="4">
-        <v>0.13333333333333333</v>
+        <v>0.29333333333333333</v>
       </c>
       <c r="F8" s="4">
-        <v>0.1</v>
+        <v>0.22666666666666666</v>
       </c>
       <c r="G8" s="4">
-        <v>0.2</v>
+        <v>0.25333333333333335</v>
       </c>
       <c r="H8" s="4">
-        <v>3.3333333333333333E-2</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -84854,25 +84862,25 @@
         <v>40</v>
       </c>
       <c r="B9" s="4">
-        <v>1.6666666666666666E-2</v>
+        <v>0.11833333333333333</v>
       </c>
       <c r="C9" s="4">
-        <v>3.3333333333333333E-2</v>
+        <v>0.13666666666666666</v>
       </c>
       <c r="D9" s="4">
-        <v>3.3333333333333333E-2</v>
+        <v>7.6666666666666661E-2</v>
       </c>
       <c r="E9" s="4">
-        <v>3.3333333333333333E-2</v>
+        <v>0.10333333333333333</v>
       </c>
       <c r="F9" s="4">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="G9" s="4">
-        <v>0</v>
+        <v>8.666666666666667E-2</v>
       </c>
       <c r="H9" s="4">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -84880,22 +84888,22 @@
         <v>24</v>
       </c>
       <c r="B10" s="4">
-        <v>0</v>
+        <v>7.8333333333333338E-2</v>
       </c>
       <c r="C10" s="4">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="D10" s="4">
-        <v>0</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E10" s="4">
-        <v>0</v>
+        <v>1.3333333333333334E-2</v>
       </c>
       <c r="F10" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G10" s="4">
-        <v>0</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
@@ -84906,22 +84914,22 @@
         <v>34</v>
       </c>
       <c r="B11" s="4">
-        <v>0</v>
+        <v>2.1666666666666667E-2</v>
       </c>
       <c r="C11" s="4">
-        <v>0</v>
+        <v>6.6666666666666671E-3</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
       </c>
       <c r="E11" s="4">
-        <v>0</v>
+        <v>3.3333333333333335E-3</v>
       </c>
       <c r="F11" s="4">
-        <v>0</v>
+        <v>3.3333333333333335E-3</v>
       </c>
       <c r="G11" s="4">
-        <v>0</v>
+        <v>3.3333333333333335E-3</v>
       </c>
       <c r="H11" s="4">
         <v>0</v>
@@ -84941,7 +84949,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="4">
-        <v>0</v>
+        <v>3.3333333333333335E-3</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
@@ -84950,7 +84958,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="4">
-        <v>0</v>
+        <v>3.3333333333333335E-3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -84958,13 +84966,13 @@
         <v>39</v>
       </c>
       <c r="B13" s="4">
-        <v>0</v>
+        <v>1.6666666666666668E-3</v>
       </c>
       <c r="C13" s="4">
         <v>0</v>
       </c>
       <c r="D13" s="4">
-        <v>0</v>
+        <v>3.3333333333333335E-3</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
@@ -84973,10 +84981,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <v>0</v>
+        <v>6.6666666666666671E-3</v>
       </c>
       <c r="H13" s="4">
-        <v>0</v>
+        <v>3.3333333333333335E-3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -84984,13 +84992,13 @@
         <v>38</v>
       </c>
       <c r="B14" s="4">
-        <v>0</v>
+        <v>3.3333333333333335E-3</v>
       </c>
       <c r="C14" s="4">
         <v>0</v>
       </c>
       <c r="D14" s="4">
-        <v>0</v>
+        <v>3.3333333333333335E-3</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
@@ -84999,24 +85007,24 @@
         <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>0</v>
+        <v>3.3333333333333335E-3</v>
       </c>
       <c r="H14" s="4">
-        <v>0</v>
+        <v>3.3333333333333335E-3</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f>SUM(B3:B14)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="C16" s="3">
         <f>SUM(C3:C14)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="D16" s="3">
         <f>SUM(D3:D14)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="E16" s="3">
         <f>SUM(E3:E14)</f>
